--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rspo2-Znrf3.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.58183960385228</v>
+        <v>1.621828666666667</v>
       </c>
       <c r="H2">
-        <v>1.58183960385228</v>
+        <v>4.865486</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30696278338881</v>
+        <v>1.434811333333333</v>
       </c>
       <c r="N2">
-        <v>1.30696278338881</v>
+        <v>4.304434000000001</v>
       </c>
       <c r="O2">
-        <v>0.1411297440167277</v>
+        <v>0.1441037383382818</v>
       </c>
       <c r="P2">
-        <v>0.1411297440167277</v>
+        <v>0.1441037383382818</v>
       </c>
       <c r="Q2">
-        <v>2.067405491525428</v>
+        <v>2.327018151658222</v>
       </c>
       <c r="R2">
-        <v>2.067405491525428</v>
+        <v>20.943163364924</v>
       </c>
       <c r="S2">
-        <v>0.1411297440167277</v>
+        <v>0.1441037383382818</v>
       </c>
       <c r="T2">
-        <v>0.1411297440167277</v>
+        <v>0.1441037383382818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.58183960385228</v>
+        <v>1.621828666666667</v>
       </c>
       <c r="H3">
-        <v>1.58183960385228</v>
+        <v>4.865486</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.81768262698144</v>
+        <v>2.860758333333334</v>
       </c>
       <c r="N3">
-        <v>2.81768262698144</v>
+        <v>8.582275000000001</v>
       </c>
       <c r="O3">
-        <v>0.3042617838246213</v>
+        <v>0.2873171968596052</v>
       </c>
       <c r="P3">
-        <v>0.3042617838246213</v>
+        <v>0.2873171968596052</v>
       </c>
       <c r="Q3">
-        <v>4.457121970445773</v>
+        <v>4.639659873405556</v>
       </c>
       <c r="R3">
-        <v>4.457121970445773</v>
+        <v>41.75693886065</v>
       </c>
       <c r="S3">
-        <v>0.3042617838246213</v>
+        <v>0.2873171968596052</v>
       </c>
       <c r="T3">
-        <v>0.3042617838246213</v>
+        <v>0.2873171968596052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.58183960385228</v>
+        <v>1.621828666666667</v>
       </c>
       <c r="H4">
-        <v>1.58183960385228</v>
+        <v>4.865486</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.06574351845105</v>
+        <v>2.339489666666667</v>
       </c>
       <c r="N4">
-        <v>2.06574351845105</v>
+        <v>7.018469</v>
       </c>
       <c r="O4">
-        <v>0.2230651535518751</v>
+        <v>0.2349641370529418</v>
       </c>
       <c r="P4">
-        <v>0.2230651535518751</v>
+        <v>0.2349641370529418</v>
       </c>
       <c r="Q4">
-        <v>3.267674908887024</v>
+        <v>3.794251406770444</v>
       </c>
       <c r="R4">
-        <v>3.267674908887024</v>
+        <v>34.14826266093399</v>
       </c>
       <c r="S4">
-        <v>0.2230651535518751</v>
+        <v>0.2349641370529418</v>
       </c>
       <c r="T4">
-        <v>0.2230651535518751</v>
+        <v>0.2349641370529418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.58183960385228</v>
+        <v>1.621828666666667</v>
       </c>
       <c r="H5">
-        <v>1.58183960385228</v>
+        <v>4.865486</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.07032923158222</v>
+        <v>3.321735333333333</v>
       </c>
       <c r="N5">
-        <v>3.07032923158222</v>
+        <v>9.965206</v>
       </c>
       <c r="O5">
-        <v>0.3315433186067759</v>
+        <v>0.3336149277491712</v>
       </c>
       <c r="P5">
-        <v>0.3315433186067759</v>
+        <v>0.3336149277491712</v>
       </c>
       <c r="Q5">
-        <v>4.856768375382094</v>
+        <v>5.387285586679555</v>
       </c>
       <c r="R5">
-        <v>4.856768375382094</v>
+        <v>48.485570280116</v>
       </c>
       <c r="S5">
-        <v>0.3315433186067759</v>
+        <v>0.3336149277491712</v>
       </c>
       <c r="T5">
-        <v>0.3315433186067759</v>
+        <v>0.3336149277491712</v>
       </c>
     </row>
   </sheetData>
